--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/134.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/134.xlsx
@@ -479,13 +479,13 @@
         <v>0.04377246700026228</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.001585566737007</v>
+        <v>-1.859641777240815</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02378473366771337</v>
+        <v>0.07076448371490927</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.09314498903368706</v>
+        <v>-0.1127728463321163</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.0475196461619696</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.176682204538516</v>
+        <v>-1.995721179430074</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.03720916376912267</v>
+        <v>0.01997028975533101</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.09176046909746897</v>
+        <v>-0.1010471213216349</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.05012443124288718</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.316698644696184</v>
+        <v>-2.119474084742255</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.02102735829431995</v>
+        <v>-0.005683583829369054</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1018973507450217</v>
+        <v>-0.1179248462886072</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.03873709956797536</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.403539760572249</v>
+        <v>-2.15862550290339</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03898822637701221</v>
+        <v>0.003911078336554645</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1143458317574496</v>
+        <v>-0.1308264983638588</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.00668509021152122</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.366419378264686</v>
+        <v>-2.08141259483047</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02177260535512152</v>
+        <v>0.01152959750981464</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1206920563990131</v>
+        <v>-0.1335985878396788</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.04165151984096103</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.036173558394712</v>
+        <v>-1.824150493060846</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1447844570450536</v>
+        <v>0.133904082092545</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1031135325744573</v>
+        <v>-0.1351435169138816</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.09467881326674918</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.740838988141121</v>
+        <v>-1.484120935615157</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1325860435100924</v>
+        <v>0.1954749644895847</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.07718275500251365</v>
+        <v>-0.1119836089764043</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.14008168573167</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.330893003678449</v>
+        <v>-1.095700881596954</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1183687925350952</v>
+        <v>0.2381224479698391</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07340307656870593</v>
+        <v>-0.09332125610926725</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1622859263057553</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.8864694232005628</v>
+        <v>-0.6164727876211162</v>
       </c>
       <c r="F10" t="n">
-        <v>0.088122826175159</v>
+        <v>0.2504507746089477</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01525987236880576</v>
+        <v>-0.0596414363392395</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1421313401586321</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3634368262206797</v>
+        <v>-0.01506172415504719</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.01003963730270368</v>
+        <v>0.2152760392602104</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08361978181872809</v>
+        <v>0.01746839513931048</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.06074000951712461</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1613950367556102</v>
+        <v>0.5675747610393631</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2271451716359121</v>
+        <v>0.06125338068170006</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1748840424425702</v>
+        <v>0.06931531218695589</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.08909576903120998</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6815268509968795</v>
+        <v>1.162801228843207</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3430618160932341</v>
+        <v>-0.07450154370752918</v>
       </c>
       <c r="G13" t="n">
-        <v>0.271518654625179</v>
+        <v>0.1782910593428849</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3002127653315851</v>
       </c>
       <c r="E14" t="n">
-        <v>1.242692908528405</v>
+        <v>1.777046243189409</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.5783844611995536</v>
+        <v>-0.2728446981826139</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4271362557733855</v>
+        <v>0.280306391735765</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5553883221178681</v>
       </c>
       <c r="E15" t="n">
-        <v>1.768811704132633</v>
+        <v>2.425046707469555</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.8955371139017761</v>
+        <v>-0.5534789602852234</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5402198186872127</v>
+        <v>0.3966353425705686</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8329562539991241</v>
       </c>
       <c r="E16" t="n">
-        <v>2.287315640087662</v>
+        <v>2.957537954304447</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.114308341603184</v>
+        <v>-0.8282348069053349</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6335736675495938</v>
+        <v>0.5085319998474441</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.108534413368535</v>
       </c>
       <c r="E17" t="n">
-        <v>2.744356039684758</v>
+        <v>3.484461845201982</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.447512886676062</v>
+        <v>-1.12747347941079</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7430422306123352</v>
+        <v>0.6158780389551023</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.362503193556092</v>
       </c>
       <c r="E18" t="n">
-        <v>3.122819138655049</v>
+        <v>3.936375251590335</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.773933284061471</v>
+        <v>-1.464660806502833</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9024712260695402</v>
+        <v>0.7656135650967505</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.584864120327718</v>
       </c>
       <c r="E19" t="n">
-        <v>3.365998171998561</v>
+        <v>4.340964912669806</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.093774467106799</v>
+        <v>-1.797477442025299</v>
       </c>
       <c r="G19" t="n">
-        <v>1.033221751306052</v>
+        <v>0.9227474290473527</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.76969360981334</v>
       </c>
       <c r="E20" t="n">
-        <v>3.674519227283445</v>
+        <v>4.708706825984219</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.348138835741193</v>
+        <v>-2.100948964027387</v>
       </c>
       <c r="G20" t="n">
-        <v>1.153691453615298</v>
+        <v>1.062500383472665</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.914338850392587</v>
       </c>
       <c r="E21" t="n">
-        <v>3.893273377205903</v>
+        <v>4.928810120443645</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.603363192529801</v>
+        <v>-2.399604552365871</v>
       </c>
       <c r="G21" t="n">
-        <v>1.298633613158383</v>
+        <v>1.178025458855515</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.014589834963459</v>
       </c>
       <c r="E22" t="n">
-        <v>4.019524517610044</v>
+        <v>5.132641951088785</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.866314634372131</v>
+        <v>-2.694353598769784</v>
       </c>
       <c r="G22" t="n">
-        <v>1.33652798480474</v>
+        <v>1.337212315804051</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.06874946454684</v>
       </c>
       <c r="E23" t="n">
-        <v>4.172721953512914</v>
+        <v>5.244767328619441</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.124258017537683</v>
+        <v>-2.984769768686078</v>
       </c>
       <c r="G23" t="n">
-        <v>1.456252364047</v>
+        <v>1.440178514531982</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.076893351052527</v>
       </c>
       <c r="E24" t="n">
-        <v>4.212236274476714</v>
+        <v>5.330896667065741</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.272639824737289</v>
+        <v>-3.178705026430305</v>
       </c>
       <c r="G24" t="n">
-        <v>1.566102127532709</v>
+        <v>1.554203794970708</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.045646876170349</v>
       </c>
       <c r="E25" t="n">
-        <v>4.262644998568588</v>
+        <v>5.369536361779084</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.403238174764951</v>
+        <v>-3.319060887444583</v>
       </c>
       <c r="G25" t="n">
-        <v>1.651605077443989</v>
+        <v>1.602555866540587</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.982826468610188</v>
       </c>
       <c r="E26" t="n">
-        <v>4.228838315297796</v>
+        <v>5.356601164066611</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.508391854000039</v>
+        <v>-3.39265849070608</v>
       </c>
       <c r="G26" t="n">
-        <v>1.691928153225157</v>
+        <v>1.647993737116964</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.898065142428739</v>
       </c>
       <c r="E27" t="n">
-        <v>4.190330363450631</v>
+        <v>5.267699126223814</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.576023823122262</v>
+        <v>-3.502091373409231</v>
       </c>
       <c r="G27" t="n">
-        <v>1.678047578463724</v>
+        <v>1.638698546003323</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.798293021421697</v>
       </c>
       <c r="E28" t="n">
-        <v>4.089693451787201</v>
+        <v>5.179436285250249</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.567718838227322</v>
+        <v>-3.517656549079842</v>
       </c>
       <c r="G28" t="n">
-        <v>1.653848975613745</v>
+        <v>1.632536517406138</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.69086148951802</v>
       </c>
       <c r="E29" t="n">
-        <v>3.907151512284628</v>
+        <v>4.989255699192084</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.540310222855618</v>
+        <v>-3.496694185340687</v>
       </c>
       <c r="G29" t="n">
-        <v>1.619736722083903</v>
+        <v>1.593639436167207</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.581055013380555</v>
       </c>
       <c r="E30" t="n">
-        <v>3.74681922430516</v>
+        <v>4.852295571545601</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.388814465640875</v>
+        <v>-3.395906013349425</v>
       </c>
       <c r="G30" t="n">
-        <v>1.567644007003528</v>
+        <v>1.534685723394093</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.475257922385163</v>
       </c>
       <c r="E31" t="n">
-        <v>3.582089408246337</v>
+        <v>4.633262077953192</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.336964194029507</v>
+        <v>-3.332396498081341</v>
       </c>
       <c r="G31" t="n">
-        <v>1.439969311739857</v>
+        <v>1.450771006925065</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.375013909163459</v>
       </c>
       <c r="E32" t="n">
-        <v>3.329921363968913</v>
+        <v>4.392395863815909</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.185980160262556</v>
+        <v>-3.201613647048962</v>
       </c>
       <c r="G32" t="n">
-        <v>1.395631128143657</v>
+        <v>1.407938107559079</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.281494336102803</v>
       </c>
       <c r="E33" t="n">
-        <v>3.101747599114757</v>
+        <v>4.14141594501679</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.101989508669273</v>
+        <v>-3.074946845703617</v>
       </c>
       <c r="G33" t="n">
-        <v>1.266016885127927</v>
+        <v>1.296723341598808</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.191632186132579</v>
       </c>
       <c r="E34" t="n">
-        <v>2.816236411280871</v>
+        <v>3.823209349385147</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.79781383324588</v>
+        <v>-2.835825919582849</v>
       </c>
       <c r="G34" t="n">
-        <v>1.112626104370528</v>
+        <v>1.180592005063271</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.104243180640291</v>
       </c>
       <c r="E35" t="n">
-        <v>2.612214285384585</v>
+        <v>3.561439933814355</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.682615675345768</v>
+        <v>-2.721470062137326</v>
       </c>
       <c r="G35" t="n">
-        <v>1.023387390314166</v>
+        <v>1.087348551843381</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.016099867499625</v>
       </c>
       <c r="E36" t="n">
-        <v>2.325211231575372</v>
+        <v>3.262895960959715</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.501127068851939</v>
+        <v>-2.589346605457454</v>
       </c>
       <c r="G36" t="n">
-        <v>0.903585551145959</v>
+        <v>1.011251188688233</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9262430619219731</v>
       </c>
       <c r="E37" t="n">
-        <v>2.06196946749091</v>
+        <v>2.97007914325974</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.420230849812137</v>
+        <v>-2.468074247537608</v>
       </c>
       <c r="G37" t="n">
-        <v>0.882550606846272</v>
+        <v>0.9051012040276779</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8314820549874196</v>
       </c>
       <c r="E38" t="n">
-        <v>1.829034661834059</v>
+        <v>2.696128391932936</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.255308298819462</v>
+        <v>-2.338201398154937</v>
       </c>
       <c r="G38" t="n">
-        <v>0.800795009572932</v>
+        <v>0.8307659017076549</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7318870381283512</v>
       </c>
       <c r="E39" t="n">
-        <v>1.62150976149121</v>
+        <v>2.421320092134624</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.141903917629665</v>
+        <v>-2.220647726601223</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6407518239942416</v>
+        <v>0.7261785338209281</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6263254324015648</v>
       </c>
       <c r="E40" t="n">
-        <v>1.393523242284816</v>
+        <v>2.157842898668938</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.109197531259727</v>
+        <v>-2.146196539352618</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5614554268895499</v>
+        <v>0.6498835563665135</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5172825598833918</v>
       </c>
       <c r="E41" t="n">
-        <v>1.104841686773192</v>
+        <v>1.855932163678649</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.001048836541468</v>
+        <v>-2.045755412226424</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5200033879357217</v>
+        <v>0.5565888698097771</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4076389606587787</v>
       </c>
       <c r="E42" t="n">
-        <v>0.8948588061030478</v>
+        <v>1.63150270185905</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.941262582044594</v>
+        <v>-1.955299296499273</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4720514243297893</v>
+        <v>0.4987604606852635</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3031874034830153</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7017756075442383</v>
+        <v>1.384149981324551</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.833230992096271</v>
+        <v>-1.854278134809493</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3825150689831744</v>
+        <v>0.4322205545347574</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2080116562130505</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5039417368342383</v>
+        <v>1.209147881227938</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.764980258447486</v>
+        <v>-1.761192651044881</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3729094282450692</v>
+        <v>0.3875158086118317</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1269732770542776</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3827578174125201</v>
+        <v>1.015699950104433</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.743194501794722</v>
+        <v>-1.690847449792144</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3182050328268591</v>
+        <v>0.322335415649797</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.06132094387196736</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2480269498395508</v>
+        <v>0.8525693460600444</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.694885734592892</v>
+        <v>-1.635333689635889</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2337182107630414</v>
+        <v>0.2329924051577112</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.01177711420865871</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1232359595355447</v>
+        <v>0.6719870816918632</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.648431736169053</v>
+        <v>-1.565434950318531</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1704395504711071</v>
+        <v>0.1707066957275228</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.02443910458864212</v>
       </c>
       <c r="E48" t="n">
-        <v>0.06651272667729856</v>
+        <v>0.5224168440536137</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.54057275377225</v>
+        <v>-1.459379503362872</v>
       </c>
       <c r="G48" t="n">
-        <v>0.08152470429409851</v>
+        <v>0.08892792146846644</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.0496771700143759</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.03026826646772977</v>
+        <v>0.4105238463007987</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.457474721089388</v>
+        <v>-1.359830080266084</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07346094302681244</v>
+        <v>0.0676947529488363</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.06827881784759232</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.07995240479562657</v>
+        <v>0.3159269790992051</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.406020592957568</v>
+        <v>-1.249514947304016</v>
       </c>
       <c r="G50" t="n">
-        <v>0.008367158800875957</v>
+        <v>0.01711098162273612</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.08228757484440997</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.208746914421807</v>
+        <v>0.1787161740545783</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.260106219855746</v>
+        <v>-1.160173156653284</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.01511966661933826</v>
+        <v>-0.01583754325587072</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.09356117053229403</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.2688070233025417</v>
+        <v>0.1162987217582123</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.195179553895239</v>
+        <v>-1.089236942264778</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.09354509699763379</v>
+        <v>-0.05694619686868983</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1023412751197507</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.3856415983783695</v>
+        <v>-0.004180129361185091</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.123466910485232</v>
+        <v>-1.020614766923854</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1225504847010644</v>
+        <v>-0.1077824753549637</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1088816994395426</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.498462895401195</v>
+        <v>-0.1232140783973663</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.051881740496666</v>
+        <v>-0.9474535619065708</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.2111829376047387</v>
+        <v>-0.1818878375798527</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1134517256914773</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.5006305534863575</v>
+        <v>-0.1878565213225092</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.003643724093339</v>
+        <v>-0.9310088806200897</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.2341427915602426</v>
+        <v>-0.1833004138672013</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1167892647181574</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.5815633677667644</v>
+        <v>-0.2614538196236671</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9749335379974546</v>
+        <v>-0.8782861174806341</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2763736992182781</v>
+        <v>-0.2513029098005492</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1197689905396782</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.6625169193501806</v>
+        <v>-0.3422805077063198</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9340719022587185</v>
+        <v>-0.857295087469673</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2759229678381613</v>
+        <v>-0.2729788807314985</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1235974084535504</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.7087104816450482</v>
+        <v>-0.4337478719155191</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.8980957311407343</v>
+        <v>-0.8070705594221773</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.3611776800340049</v>
+        <v>-0.3098229689724951</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.128941561582023</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.8301438586235563</v>
+        <v>-0.5178626423665205</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9366317393390301</v>
+        <v>-0.8115925113195874</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3343125039852832</v>
+        <v>-0.3263286423266511</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.136435890921516</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.027615436451568</v>
+        <v>-0.6623138157648235</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9761363015720018</v>
+        <v>-0.8421312396043628</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3764598525106042</v>
+        <v>-0.3606122835666594</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1458942487024103</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.18109770531048</v>
+        <v>-0.7895572971100336</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.9866275471327451</v>
+        <v>-0.852654201040297</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3955759863612419</v>
+        <v>-0.4045406004680848</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1577551259312228</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.243402322281647</v>
+        <v>-0.8621958001073435</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.9241179968141902</v>
+        <v>-0.8426063678115494</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4311361915776838</v>
+        <v>-0.4373177376365254</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1719109868732187</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.361960533189965</v>
+        <v>-0.9613530442089824</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.9814773769382845</v>
+        <v>-0.8775054190143966</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4516716108431142</v>
+        <v>-0.4711799236889009</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1890332708228427</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.478765832073309</v>
+        <v>-1.028936524637404</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.043359318880466</v>
+        <v>-0.8990240304107449</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4639566331141736</v>
+        <v>-0.498288458087645</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.208955091964075</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.543629676204111</v>
+        <v>-1.099794669179287</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.079402581272892</v>
+        <v>-0.9359199619092651</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4820981137233679</v>
+        <v>-0.5099489215857144</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2326766275787339</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.579983388221003</v>
+        <v>-1.148892673736829</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.089200347024173</v>
+        <v>-0.9652473877300187</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.5423100928526129</v>
+        <v>-0.5425345436616562</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2598501295967877</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.65183082410057</v>
+        <v>-1.1861728552617</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.141097277567312</v>
+        <v>-1.02088557170433</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5399740966606678</v>
+        <v>-0.5812968324310255</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2908988633609502</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.74102684370956</v>
+        <v>-1.235522147138062</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.179273432566326</v>
+        <v>-1.040639682582846</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5805563887294534</v>
+        <v>-0.5954256449078943</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3246093865312914</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.678324558457152</v>
+        <v>-1.24057716970695</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.278259898878475</v>
+        <v>-1.098748045297987</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5590164301094189</v>
+        <v>-0.5994126963717963</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3606925652570042</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.669610011827776</v>
+        <v>-1.244417230287756</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.242979647252661</v>
+        <v>-1.102299003478014</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.574006450581856</v>
+        <v>-0.6190259155739836</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3979810627459863</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.669011679643886</v>
+        <v>-1.242836315893625</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.315593753422901</v>
+        <v>-1.143538180115657</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5850167386385119</v>
+        <v>-0.6193845489319114</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4364802575200962</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.630385403185432</v>
+        <v>-1.244905166829154</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.467628070595212</v>
+        <v>-1.228317154183638</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6017334445468226</v>
+        <v>-0.6353345845495499</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4744705908347587</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.579813830272867</v>
+        <v>-1.162958054463316</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.47837914236425</v>
+        <v>-1.292793698684705</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6378340394828634</v>
+        <v>-0.6475177500675924</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5107998941684838</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.491730915898942</v>
+        <v>-1.102990653525447</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.545238037028696</v>
+        <v>-1.33866522286225</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6358908322067441</v>
+        <v>-0.6597863044803796</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.544432398160556</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.343656813680756</v>
+        <v>-0.9756630031268453</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.580384106105626</v>
+        <v>-1.379587850668661</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6327216843703612</v>
+        <v>-0.6576869575110128</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5752193905266996</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.197834538601123</v>
+        <v>-0.8335649036994363</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.609201638240618</v>
+        <v>-1.399178502805808</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5828911650800449</v>
+        <v>-0.6102314693359534</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.6025489574129885</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.065452475554311</v>
+        <v>-0.7166406702841265</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.650115117236878</v>
+        <v>-1.442585947449291</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.547042467383501</v>
+        <v>-0.585824883535203</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.6259830022293742</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.89144393624012</v>
+        <v>-0.541467182477347</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.717175895645327</v>
+        <v>-1.492775100097535</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4842560130777025</v>
+        <v>-0.5389244231759844</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.6438926314158385</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6716907362491482</v>
+        <v>-0.3399115757978303</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.68482753271264</v>
+        <v>-1.501869017387849</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4500711789873273</v>
+        <v>-0.4830831356163159</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.6561075225290258</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.4722021507431306</v>
+        <v>-0.1418782610265336</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.838312241254259</v>
+        <v>-1.584943263164318</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3753546762443367</v>
+        <v>-0.4563320147341461</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.6624646654478502</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.1842445710748072</v>
+        <v>0.08173634676893009</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.840265817181883</v>
+        <v>-1.580142577517634</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3519038361440506</v>
+        <v>-0.4267520817532188</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.6641563635164851</v>
       </c>
       <c r="E82" t="n">
-        <v>0.06249456925888236</v>
+        <v>0.2893137002899804</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.897259854820605</v>
+        <v>-1.610315963317037</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2221944455027482</v>
+        <v>-0.3301485755251242</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.6619046521953761</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3117862276247626</v>
+        <v>0.50969938802274</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.941321134429562</v>
+        <v>-1.617681975330123</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1594482459616149</v>
+        <v>-0.2983985447763273</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.656603201643999</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5682840987864212</v>
+        <v>0.7691346371636171</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.918882152732</v>
+        <v>-1.593586449074514</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.08264154505940877</v>
+        <v>-0.213206044489512</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.648129955405924</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7514615756341654</v>
+        <v>0.9517918516740952</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.926042621477023</v>
+        <v>-1.553931236434386</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.02255398974822034</v>
+        <v>-0.163674996251479</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.6367853892030728</v>
       </c>
       <c r="E86" t="n">
-        <v>1.013187076916231</v>
+        <v>1.15964976870645</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.903430422307265</v>
+        <v>-1.47522463262411</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.003921522994243915</v>
+        <v>-0.1105484656240162</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.6215277530954694</v>
       </c>
       <c r="E87" t="n">
-        <v>1.177321610394548</v>
+        <v>1.341615333169496</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.808834165026348</v>
+        <v>-1.345152949100819</v>
       </c>
       <c r="G87" t="n">
-        <v>0.07135244724729441</v>
+        <v>-0.0356624049328896</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.6015149151961944</v>
       </c>
       <c r="E88" t="n">
-        <v>1.358113077554854</v>
+        <v>1.497034710097759</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.74894727361781</v>
+        <v>-1.27012477689201</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1241886556326252</v>
+        <v>-0.01330698236804303</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.5760032280409174</v>
       </c>
       <c r="E89" t="n">
-        <v>1.440197422072961</v>
+        <v>1.581914930998079</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.584608416712783</v>
+        <v>-1.094447494606237</v>
       </c>
       <c r="G89" t="n">
-        <v>0.137498954561298</v>
+        <v>0.01071718316838622</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.5451475468506838</v>
       </c>
       <c r="E90" t="n">
-        <v>1.568502775316389</v>
+        <v>1.722250359669686</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.510604911240911</v>
+        <v>-0.9712477873478661</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1798164709554318</v>
+        <v>0.05946753294018175</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.5096474261586641</v>
       </c>
       <c r="E91" t="n">
-        <v>1.644753228561401</v>
+        <v>1.767147230605788</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.234061997037927</v>
+        <v>-0.7444804995742916</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1898600347394421</v>
+        <v>0.06768743390071533</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.4704069567771508</v>
       </c>
       <c r="E92" t="n">
-        <v>1.710380693379492</v>
+        <v>1.836403723450529</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.9788291013598445</v>
+        <v>-0.5718333032106027</v>
       </c>
       <c r="G92" t="n">
-        <v>0.2522262536989612</v>
+        <v>0.1013574949399151</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.4300309155892768</v>
       </c>
       <c r="E93" t="n">
-        <v>1.773743522724818</v>
+        <v>1.878761494609329</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.75700766035402</v>
+        <v>-0.3561049697654913</v>
       </c>
       <c r="G93" t="n">
-        <v>0.2257935114100539</v>
+        <v>0.07712351669068453</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.3906910246158924</v>
       </c>
       <c r="E94" t="n">
-        <v>1.834108591943927</v>
+        <v>1.874420689152913</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.5665147949093595</v>
+        <v>-0.2199194413784779</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1735782022736526</v>
+        <v>0.008292138557635945</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.3555784057241142</v>
       </c>
       <c r="E95" t="n">
-        <v>1.801386347636393</v>
+        <v>1.84414971604523</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.3841777887541741</v>
+        <v>-0.07737975938110327</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1375733648838613</v>
+        <v>0.0008694039216120804</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.3263001939761471</v>
       </c>
       <c r="E96" t="n">
-        <v>1.822587190360156</v>
+        <v>1.815090045401569</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.2162477189044546</v>
+        <v>0.02488137104450637</v>
       </c>
       <c r="G96" t="n">
-        <v>0.07361159343396921</v>
+        <v>-0.0308104859493588</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3034700742360018</v>
       </c>
       <c r="E97" t="n">
-        <v>1.715479630237106</v>
+        <v>1.686261990138167</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.06295147585195121</v>
+        <v>0.1068778869851618</v>
       </c>
       <c r="G97" t="n">
-        <v>0.06253421410287098</v>
+        <v>-0.04438244084835658</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2842397512723022</v>
       </c>
       <c r="E98" t="n">
-        <v>1.61239266721518</v>
+        <v>1.551085270550495</v>
       </c>
       <c r="F98" t="n">
-        <v>0.02644093821495116</v>
+        <v>0.1346170793636635</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03175700683348723</v>
+        <v>-0.06530028037810798</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2668594444740483</v>
       </c>
       <c r="E99" t="n">
-        <v>1.494004624175675</v>
+        <v>1.397276694129523</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1021198957858502</v>
+        <v>0.1780598994063974</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0008529360633398829</v>
+        <v>-0.08491471942164877</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2474634179491285</v>
       </c>
       <c r="E100" t="n">
-        <v>1.341563489911972</v>
+        <v>1.216859108344064</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1638328897005722</v>
+        <v>0.2162744794080469</v>
       </c>
       <c r="G100" t="n">
-        <v>0.004543566078342382</v>
+        <v>-0.1120775367606235</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2277965608005297</v>
       </c>
       <c r="E101" t="n">
-        <v>1.205218162307651</v>
+        <v>1.096786464395381</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1996614600147834</v>
+        <v>0.2220303008345184</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.0668476491350178</v>
+        <v>-0.1324702345876949</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2052146350336037</v>
       </c>
       <c r="E102" t="n">
-        <v>1.047054752254698</v>
+        <v>0.9234695751286224</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1926138265949595</v>
+        <v>0.217891379122106</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.04386400827312073</v>
+        <v>-0.1445216572395597</v>
       </c>
     </row>
   </sheetData>
